--- a/src/components/Admin/Course/data/template.xlsx
+++ b/src/components/Admin/Course/data/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LapTrinh\Project\Mochi\UI\src\components\Admin\Course\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD944EC1-6056-4021-BD57-BDF111423E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F3886D-F078-4BB7-9E6E-5C500B9A679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Tên khóa học</t>
   </si>
@@ -36,31 +36,19 @@
     <t>Nội dung</t>
   </si>
   <si>
-    <t>VSTEP</t>
-  </si>
-  <si>
-    <t>IELTS</t>
-  </si>
-  <si>
-    <t>TOIEC</t>
-  </si>
-  <si>
-    <t>dfsaf</t>
-  </si>
-  <si>
-    <t>fdsaf</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>cx</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>fdaw</t>
+    <t>Luyện Thi IELTS</t>
+  </si>
+  <si>
+    <t>Giúp học viên …</t>
+  </si>
+  <si>
+    <t>Tiếng Anh Cơ Bản</t>
+  </si>
+  <si>
+    <t>Tiếng Anh Cho Người Đi Làm</t>
+  </si>
+  <si>
+    <t>Bao gồm …</t>
   </si>
 </sst>
 </file>
@@ -381,12 +369,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="25.296875" customWidth="1"/>
     <col min="2" max="2" width="31.796875" customWidth="1"/>
     <col min="3" max="3" width="24.8984375" customWidth="1"/>
   </cols>
@@ -404,10 +392,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -415,24 +403,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
